--- a/FlashPOS_DB.xlsx
+++ b/FlashPOS_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24515"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_11e9\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkl\OneDrive\เดสก์ท็อป\flashPOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_0B230249499B335E7556CCAAFFF284F02C73ED2B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12D7B0B-BF7F-4904-A1FF-557F75350162}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44C1E59-9394-40C8-BE9A-66290D57A48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4395" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t xml:space="preserve">Product </t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>line_total</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -158,7 +164,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +172,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -562,17 +568,17 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,7 +599,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -620,7 +626,7 @@
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -645,7 +651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -670,7 +676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -689,9 +695,9 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -708,9 +714,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -727,9 +733,9 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -744,8 +750,10 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -760,8 +768,10 @@
       <c r="M9" s="9"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -775,10 +785,8 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -803,13 +811,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>4</v>
-      </c>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -837,16 +841,10 @@
       </c>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -869,10 +867,8 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>31</v>
-      </c>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -895,8 +891,10 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -919,9 +917,13 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -943,10 +945,16 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -967,11 +975,13 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -991,7 +1001,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1019,6 +1029,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x01010090385BBB86965D40871A31A2ACFFC646" ma:contentTypeVersion="2" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="770946a4da56ee9633dc2aa228c914c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="19528ec5-074e-44ad-b7a0-8718965b79c6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3701d15d7341f583957b3b759cf5efe2" ns2:_="">
     <xsd:import namespace="19528ec5-074e-44ad-b7a0-8718965b79c6"/>
@@ -1150,12 +1166,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1166,14 +1176,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20EB630D-C75B-4839-AF55-0615555F73F8}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2C51C1F-20A4-4624-BEF5-8ACB8047AE75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20EB630D-C75B-4839-AF55-0615555F73F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="19528ec5-074e-44ad-b7a0-8718965b79c6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
